--- a/static/download/2012/RP1_SAF_RAT_App_2012.xlsx
+++ b/static/download/2012/RP1_SAF_RAT_App_2012.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Data information" sheetId="1" r:id="rId3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -114,7 +114,7 @@
     <t>Meta data</t>
   </si>
   <si>
-    <t>RAT methodology application</t>
+    <t>Metadata - Single European Sky Portal</t>
   </si>
   <si>
     <t>Release date</t>
@@ -126,7 +126,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>% severity assessed with RAT</t>
@@ -362,8 +362,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -393,7 +393,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +418,43 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
+    <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left/>
       <right/>
@@ -427,37 +462,14 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -503,6 +515,26 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -528,107 +560,113 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,30 +676,33 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="88.0"/>
+    <col customWidth="1" min="1" max="1" width="77.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -680,7 +721,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -689,15 +733,15 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="2.0"/>
-    <col customWidth="1" min="5" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="2.14"/>
-    <col customWidth="1" min="8" max="8" width="15.43"/>
-    <col customWidth="1" min="9" max="9" width="32.0"/>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col customWidth="1" min="2" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="1.75"/>
+    <col customWidth="1" min="5" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="1.88"/>
+    <col customWidth="1" min="8" max="8" width="13.5"/>
+    <col customWidth="1" min="9" max="9" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1473,15 +1517,17 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="I2"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -1490,17 +1536,17 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="10.29"/>
-    <col customWidth="1" min="4" max="4" width="2.0"/>
-    <col customWidth="1" min="5" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="2.14"/>
-    <col customWidth="1" min="8" max="8" width="18.43"/>
-    <col customWidth="1" min="9" max="9" width="8.86"/>
-    <col customWidth="1" min="10" max="10" width="16.43"/>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col customWidth="1" min="2" max="2" width="9.13"/>
+    <col customWidth="1" min="3" max="3" width="9.0"/>
+    <col customWidth="1" min="4" max="4" width="1.75"/>
+    <col customWidth="1" min="5" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="1.88"/>
+    <col customWidth="1" min="8" max="8" width="16.13"/>
+    <col customWidth="1" min="9" max="9" width="7.75"/>
+    <col customWidth="1" min="10" max="10" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1666,25 +1712,27 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="I2"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="32.29"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="8.0"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="28.25"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="7.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
